--- a/pred_ohlcv/54_21/2020-01-13 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XSR ohlcv.xlsx
@@ -5202,7 +5202,7 @@
         <v>-3627661.130171534</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3433704.108051853</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3304471.912951221</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3456368.617351221</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3313143.414651221</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3402765.131751221</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3255115.425351221</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3262229.522351221</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3246011.804651221</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3469523.559051221</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3468302.559051221</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3680352.371651221</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3679853.371651221</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3687535.624651221</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3882654.235251221</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-4448600.171051221</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3917924.080251221</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4670112.109551221</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-4465059.073915651</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-4831194.364615652</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4291357.131886308</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4596442.796086308</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-18134127.71004901</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-17931006.69799868</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-17888696.74089868</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-17685735.10179868</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-17429353.68189868</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-17124552.81299868</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-18224453.98899868</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-18232509.20579868</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-18102922.23909868</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-18391049.75629868</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-18132631.66629868</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-17840052.07039868</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-17839218.60209868</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-18243604.68229868</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-18251308.95989868</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-17849350.67299869</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-18059503.41409868</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-18175319.73469869</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-17490774.82914902</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-16771787.01842759</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-17034869.16646092</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-17089028.28397009</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-17216888.50077009</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-16730133.74777009</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-16548178.90569684</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-17361244.84852749</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-17338015.3347275</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-17555747.9767275</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-17734014.0161275</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-17385441.3174275</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-17383921.1951275</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-17791343.1762275</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-17653446.2460275</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-17915644.5032275</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-17021681.2476275</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-17017001.1218275</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-17265041.5549275</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-17499219.9069275</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-17218503.0273275</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-17573257.3832275</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-17575177.7571275</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-17446409.6763275</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-17260178.1631275</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-17466761.0993275</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-17467761.0993275</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-17260757.7944275</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-18529585.7447275</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-18215453.3067275</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XSR ohlcv.xlsx
@@ -9050,7 +9050,7 @@
         <v>-3173727.444651853</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3433704.108051853</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3304471.912951221</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3456368.617351221</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3313143.414651221</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3402765.131751221</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3255115.425351221</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3262229.522351221</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3246011.804651221</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3469523.559051221</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3468302.559051221</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3680352.371651221</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3679853.371651221</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3687535.624651221</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3882654.235251221</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-4448600.171051221</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-18134127.71004901</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-17931006.69799868</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-17888696.74089868</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-18007979.66259868</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-18166194.70279868</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-17685735.10179868</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-17429353.68189868</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-17325752.38339868</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-17124552.81299868</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-18086881.70799868</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-18086770.70799868</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-18384232.17289868</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-18391049.75629868</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-18132631.66629868</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-17840052.07039868</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-17839218.60209868</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-18243604.68229868</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-18251308.95989868</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-17849350.67299869</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-18059503.41409868</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-18175319.73469869</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-16771787.01842759</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-17034869.16646092</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-17089028.28397009</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-17216888.50077009</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-16730133.74777009</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-16548178.90569684</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-17361244.84852749</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-17338015.3347275</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-17555747.9767275</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-17734014.0161275</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-17385441.3174275</v>
       </c>
       <c r="H1031">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-17383921.1951275</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-17791343.1762275</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-17653446.2460275</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-17915644.5032275</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-17021681.2476275</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-17017001.1218275</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-17265041.5549275</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-17499219.9069275</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-17218503.0273275</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-17573257.3832275</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-17575177.7571275</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-17446409.6763275</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-17260178.1631275</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-17466761.0993275</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-17467761.0993275</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-17260757.7944275</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-18529585.7447275</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-18215453.3067275</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
